--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-16_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-16_beg.xlsx
@@ -1856,7 +1856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] Madam Ch'en. That's not right. She's not just the "successor"......
+    <t xml:space="preserve">[name="Amiya"] Madam Ch'en. That's not right. She's not just the 'successor'......
 </t>
   </si>
   <si>
@@ -2300,7 +2300,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] If you can feel my "dread", that can only mean that your Arts are still too shallow.
+    <t xml:space="preserve">[name="Talulah?"] If you can feel my 'dread', that can only mean that your Arts are still too shallow.
 </t>
   </si>
   <si>
@@ -2332,7 +2332,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] You don't know "Talulah".
+    <t xml:space="preserve">[name="Talulah?"] You don't know 'Talulah'.
 </t>
   </si>
   <si>
@@ -2476,7 +2476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] The L.G.D. Officer Ch'en and the present Ch'en Hui-chieh... I'm not trying to prove that "you are innocent". No, how could I?
+    <t xml:space="preserve">[name="Ch’en"] The L.G.D. Officer Ch'en and the present Ch'en Hui-chieh... I'm not trying to prove that 'you are innocent'. No, how could I?
 </t>
   </si>
   <si>
@@ -2596,7 +2596,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] This time, we're really fighting "shoulder to shoulder", Amiya. It's just the two of us.
+    <t xml:space="preserve">[name="Ch’en"] This time, we're really fighting 'shoulder to shoulder', Amiya. It's just the two of us.
 </t>
   </si>
   <si>
@@ -2720,7 +2720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] You're the one who hasn't left that fire still, "Talulah"!
+    <t xml:space="preserve">[name="Amiya"] You're the one who hasn't left that fire still, 'Talulah'!
 </t>
   </si>
   <si>
@@ -2752,7 +2752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="첸"] 이제는 용문에 납치되었던 무고한 소녀가 더는 아니니까.
+    <t xml:space="preserve">[name="첸"] 이제 더는 용문에 납치되었던 무고한 소녀가 아니니까.
 </t>
   </si>
   <si>
@@ -2932,7 +2932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="첸"] 아미야! 멍하니 잊지 말고, 불을 피해!!
+    <t xml:space="preserve">[name="첸"] 아미야! 멍하니 있지 말고, 불을 피해!!
 </t>
   </si>
   <si>
@@ -3244,7 +3244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="첸"] 네가 누구든 상관없어. 아, 아니다. 넌 탈룰라야. 카셰이가 널 이렇게 만들었지..
+    <t xml:space="preserve">[name="첸"] 네가 누구든 상관없어. 아, 아니다. 넌 탈룰라야. 카셰이가 널 이렇게 만들었지.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-16_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-16_beg.xlsx
@@ -1824,7 +1824,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Haah!
+    <t xml:space="preserve">[name="Ch'en"] Haah!
 </t>
   </si>
   <si>
@@ -1832,7 +1832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Don't even think of touching her!
+    <t xml:space="preserve">[name="Ch'en"] Don't even think of touching her!
 </t>
   </si>
   <si>
@@ -1844,15 +1844,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Amiya?! What are you doing here?! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Watch out, Amiya! Talulah has inherited all that is Kashchey. She's already...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] She's no longer that innocent girl who was kidnapped from Lungmen.
+    <t xml:space="preserve">[name="Ch'en"] Amiya?! What are you doing here?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Watch out, Amiya! Talulah has inherited all that is Kashchey. She's already...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] She's no longer that innocent girl who was kidnapped from Lungmen.
 </t>
   </si>
   <si>
@@ -1864,7 +1864,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] What? What disguise?
+    <t xml:space="preserve">[name="Ch'en"] What? What disguise?
 </t>
   </si>
   <si>
@@ -1940,11 +1940,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Amiya, don't fall for her tricks!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] She's already played many such tricks on me... Don't believe a single word she says. Even if she's... telling the truth.
+    <t xml:space="preserve">[name="Ch'en"] Amiya, don't fall for her tricks!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] She's already played many such tricks on me... Don't believe a single word she says. Even if she's... telling the truth.
 </t>
   </si>
   <si>
@@ -1956,7 +1956,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] You... huh. What are you talking about?
+    <t xml:space="preserve">[name="Ch'en"] You... huh. What are you talking about?
 </t>
   </si>
   <si>
@@ -1976,7 +1976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Are you telling the truth?
+    <t xml:space="preserve">[name="Ch'en"] Are you telling the truth?
 </t>
   </si>
   <si>
@@ -1988,7 +1988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] You've stopped making any sense.
+    <t xml:space="preserve">[name="Ch'en"] You've stopped making any sense.
 </t>
   </si>
   <si>
@@ -2032,7 +2032,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Amiya! Don't just stand there, avoid that fire! 
+    <t xml:space="preserve">[name="Ch'en"] Amiya! Don't just stand there, avoid that fire! 
 </t>
   </si>
   <si>
@@ -2040,7 +2040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] You... you withstood it?
+    <t xml:space="preserve">[name="Ch'en"] You... you withstood it?
 </t>
   </si>
   <si>
@@ -2088,7 +2088,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Amiya, I'll clear a path through the remaining flames! Fall back and jump to the right! Jump as far as you can!
+    <t xml:space="preserve">[name="Ch'en"] Amiya, I'll clear a path through the remaining flames! Fall back and jump to the right! Jump as far as you can!
 </t>
   </si>
   <si>
@@ -2100,7 +2100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Strange. Amiya, Talulah seems to be... very surprised by you.
+    <t xml:space="preserve">[name="Ch'en"] Strange. Amiya, Talulah seems to be... very surprised by you.
 </t>
   </si>
   <si>
@@ -2108,7 +2108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] I'll try my best. I don't think there's anything more important than both our lives, nor anything more shocking than the fate of Lungmen!
+    <t xml:space="preserve">[name="Ch'en"] I'll try my best. I don't think there's anything more important than both our lives, nor anything more shocking than the fate of Lungmen!
 </t>
   </si>
   <si>
@@ -2160,7 +2160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] Was the previous Lord of Fiends an idiot or a lunatic? I can’t even remember its name anymore. It seems that the extinction of the Sarkaz is indeed imminent.
+    <t xml:space="preserve">[name="Talulah?"] Was the previous Lord of Fiends an idiot or a lunatic? I can't even remember its name anymore. It seems that the extinction of the Sarkaz is indeed imminent.
 </t>
   </si>
   <si>
@@ -2176,11 +2176,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] (Amiya, to be honest, I'm not shocked...)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] (I’m quite lost, actually. )
+    <t xml:space="preserve">[name="Ch'en"] (Amiya, to be honest, I'm not shocked...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] (I'm quite lost, actually. )
 </t>
   </si>
   <si>
@@ -2188,7 +2188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] (Does it matter?) 
+    <t xml:space="preserve">[name="Ch'en"] (Does it matter?) 
 </t>
   </si>
   <si>
@@ -2196,7 +2196,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] (Correct. In fact, I think she's trying to buy time until we suffocate.) 
+    <t xml:space="preserve">[name="Ch'en"] (Correct. In fact, I think she's trying to buy time until we suffocate.) 
 </t>
   </si>
   <si>
@@ -2204,7 +2204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] (Huh? )
+    <t xml:space="preserve">[name="Ch'en"] (Huh? )
 </t>
   </si>
   <si>
@@ -2248,7 +2248,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] What?
+    <t xml:space="preserve">[name="Ch'en"] What?
 </t>
   </si>
   <si>
@@ -2264,7 +2264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Kashchey?! Amiya, is that true? 
+    <t xml:space="preserve">[name="Ch'en"] Kashchey?! Amiya, is that true? 
 </t>
   </si>
   <si>
@@ -2316,7 +2316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] My mastery over thoughts is such that none who have ever tried to comprehend them have ever succeeded. Yet, you did not see what I wanted to let you see. You’re honest, Cautus.
+    <t xml:space="preserve">[name="Talulah?"] My mastery over thoughts is such that none who have ever tried to comprehend them have ever succeeded. Yet, you did not see what I wanted to let you see. You're honest, Cautus.
 </t>
   </si>
   <si>
@@ -2348,15 +2348,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] ...Talulah. Or should I say, Kashchey... I don't care who you are.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] No matter who you are... No, that's not right. You're Talulah. It was Kashchey that created you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Talulah, you're not touching a single strand of her hair.
+    <t xml:space="preserve">[name="Ch'en"] ...Talulah. Or should I say, Kashchey... I don't care who you are.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] No matter who you are... No, that's not right. You're Talulah. It was Kashchey that created you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Talulah, you're not touching a single strand of her hair.
 </t>
   </si>
   <si>
@@ -2364,7 +2364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] No matter who it is by my side, Talulah, a good person would never strike at my friends to get at me.
+    <t xml:space="preserve">[name="Ch'en"] No matter who it is by my side, Talulah, a good person would never strike at my friends to get at me.
 </t>
   </si>
   <si>
@@ -2376,11 +2376,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Of course! I want to know... How would I not?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] I want to know everything that's happened to you. I want you to tell me yourself.
+    <t xml:space="preserve">[name="Ch'en"] Of course! I want to know... How would I not?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] I want to know everything that's happened to you. I want you to tell me yourself.
 </t>
   </si>
   <si>
@@ -2388,35 +2388,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Hah.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] You've got it all wrong.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] ——The reason I want to know is so I can prevent such things from happening ever again.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] I want to know, so I can judge your actions, figure out your motives, compare your deeds.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] ...I want to know, so that I can see clearly what you want to do, how you want to do it, how far you want to go with it...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] I want to know, so that I can see the extent of your sins!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] As for you, Talulah...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] What's done is done, Talulah. Despite my wishes, you've grown up and become as you are now.
+    <t xml:space="preserve">[name="Ch'en"] Hah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] You've got it all wrong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] ——The reason I want to know is so I can prevent such things from happening ever again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] I want to know, so I can judge your actions, figure out your motives, compare your deeds.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] ...I want to know, so that I can see clearly what you want to do, how you want to do it, how far you want to go with it...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] I want to know, so that I can see the extent of your sins!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] As for you, Talulah...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] What's done is done, Talulah. Despite my wishes, you've grown up and become as you are now.
 </t>
   </si>
   <si>
@@ -2424,11 +2424,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] My actions sadden you? Reunion invaded my city, killed my friends, harmed countless Ursus citizens and decimated so many Infected... who's saddening who?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] I watched as Reunion members helped each other at Lungmen, willing to sacrifice themselves for the sake of their comrades. Even in the wilderness, they have nowhere to go. Who's saddening who?
+    <t xml:space="preserve">[name="Ch'en"] My actions sadden you? Reunion invaded my city, killed my friends, harmed countless Ursus citizens and decimated so many Infected... who's saddening who?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] I watched as Reunion members helped each other at Lungmen, willing to sacrifice themselves for the sake of their comrades. Even in the wilderness, they have nowhere to go. Who's saddening who?
 </t>
   </si>
   <si>
@@ -2436,7 +2436,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Sorry, Talulah. I wouldn't believe you if you said that sending them off to die in Lungmen wasn't just a way to get this moment here with me.
+    <t xml:space="preserve">[name="Ch'en"] Sorry, Talulah. I wouldn't believe you if you said that sending them off to die in Lungmen wasn't just a way to get this moment here with me.
 </t>
   </si>
   <si>
@@ -2444,15 +2444,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] You asked if I knew Talulah, I do. You asked if I believe Talulah, of course I do.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] That's why I came here of my own free will, to verify this thought of mine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] But, I did not come here to prove your innocence... No, definitely not.
+    <t xml:space="preserve">[name="Ch'en"] You asked if I knew Talulah, I do. You asked if I believe Talulah, of course I do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] That's why I came here of my own free will, to verify this thought of mine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] But, I did not come here to prove your innocence... No, definitely not.
 </t>
   </si>
   <si>
@@ -2468,39 +2468,39 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Don't change the topic. You're the leader of Reunion!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] I need proof, judgment and verification.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] The L.G.D. Officer Ch'en and the present Ch'en Hui-chieh... I'm not trying to prove that 'you are innocent'. No, how could I?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] The Talulah of the past? Excuse me?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] No matter what caused you to become like this, since when can we look at Talulah as two distinct halves?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] It's because I knew you in the past that I want to understand even more... Who and what turned you into this!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] The pain and suffering you've experienced, the truth behind your father's death, your hate towards Wei Yenwu. I can understand all that. Maybe they all pushed you down this road.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] But what was it that caused you to become someone so cruel?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] What was it that turned you into the vanguard of the Ursus invasion? Did you deceive your people too, Talulah?
+    <t xml:space="preserve">[name="Ch'en"] Don't change the topic. You're the leader of Reunion!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] I need proof, judgment and verification.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] The L.G.D. Officer Ch'en and the present Ch'en Hui-chieh... I'm not trying to prove that 'you are innocent.' No, how could I?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] The Talulah of the past? Excuse me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] No matter what caused you to become like this, since when can we look at Talulah as two distinct halves?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] It's because I knew you in the past that I want to understand even more... Who and what turned you into this!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] The pain and suffering you've experienced, the truth behind your father's death, your hate towards Wei Yenwu. I can understand all that. Maybe they all pushed you down this road.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] But what was it that caused you to become someone so cruel?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] What was it that turned you into the vanguard of the Ursus invasion? Did you deceive your people too, Talulah?
 </t>
   </si>
   <si>
@@ -2512,47 +2512,47 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] No. That can wait for later. I can reconstruct the flow of events from the garbage heap.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] I came to fulfill my duty.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] If you really weren't responsible for these, I would fire a flare. It wouldn't matter even if you killed me, I'd still be able to prove that you didn't deserve death.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] But if you're conspiring to do harm, then we will gladly give up our lives just to stop you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] I want to see to what extent you're wrong. Taking a life without a trial? That's murder. And the city is guilty of murdering the Infected.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Right now, I see it all clearly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] My sword, my thoughts, my ideas, they're all on you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] As for the past, let it remain in the past. The past...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Will never return.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] I will never forgive a schemer who toys with lives, no matter who they are.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] You cannot break the law with impunity.
+    <t xml:space="preserve">[name="Ch'en"] No. That can wait for later. I can reconstruct the flow of events from the garbage heap.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] I came to fulfill my duty.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] If you really weren't responsible for these, I would fire a flare. It wouldn't matter even if you killed me, I'd still be able to prove that you didn't deserve death.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] But if you're conspiring to do harm, then we will gladly give up our lives just to stop you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] I want to see to what extent you're wrong. Taking a life without a trial? That's murder. And the city is guilty of murdering the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Right now, I see it all clearly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] My sword, my thoughts, my ideas, they're all on you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] As for the past, let it remain in the past. The past...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Will never return.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] I will never forgive a schemer who toys with lives, no matter who they are.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] You cannot break the law with impunity.
 </t>
   </si>
   <si>
@@ -2564,19 +2564,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Hmph...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] It's pointless to try and taunt me. Feel free to guilt me or whatever.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] This is who I am. A woman of my word. You're the one who's forgotten all this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Amiya, I won't ask what else you need to prepare. Instead, what do you want me to do?
+    <t xml:space="preserve">[name="Ch'en"] Hmph...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] It's pointless to try and taunt me. Feel free to guilt me or whatever.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] This is who I am. A woman of my word. You're the one who's forgotten all this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Amiya, I won't ask what else you need to prepare. Instead, what do you want me to do?
 </t>
   </si>
   <si>
@@ -2584,7 +2584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] How long?
+    <t xml:space="preserve">[name="Ch'en"] How long?
 </t>
   </si>
   <si>
@@ -2592,35 +2592,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Then I'll give you at least three minutes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] This time, we're really fighting 'shoulder to shoulder', Amiya. It's just the two of us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] But we're carrying the burden of countless lives. You know as well as I.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Three minutes, Amiya. In the next three minutes, you will not die. I guarantee it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] So, once we're done with this, I really hope you'll give me a proper explanation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] You have to help me to understand exactly what my sister's become...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Also, I want to know if we'll be able to face this thing's true nature in the end, instead of just an empty shell with a theatrical streak!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] I'll accept the outcome, no matter what it is!
+    <t xml:space="preserve">[name="Ch'en"] Then I'll give you at least three minutes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] This time, we're really fighting 'shoulder to shoulder', Amiya. It's just the two of us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] But we're carrying the burden of countless lives. You know as well as I.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Three minutes, Amiya. In the next three minutes, you will not die. I guarantee it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] So, once we're done with this, I really hope you'll give me a proper explanation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] You have to help me to understand exactly what my sister's become...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Also, I want to know if we'll be able to face this thing's true nature in the end, instead of just an empty shell with a theatrical streak!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] I'll accept the outcome, no matter what it is!
 </t>
   </si>
   <si>
@@ -2628,11 +2628,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] I'll believe it when I see it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Talulah, your actions, your words... I've been watching!
+    <t xml:space="preserve">[name="Ch'en"] I'll believe it when I see it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Talulah, your actions, your words... I've been watching!
 </t>
   </si>
   <si>
@@ -2664,11 +2664,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] ......
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] ... Are you really Talulah?! 
+    <t xml:space="preserve">[name="Ch'en"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] ... Are you really Talulah?! 
 </t>
   </si>
   <si>
@@ -2704,7 +2704,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] You should ask my permission first.
+    <t xml:space="preserve">[name="Ch'en"] You should ask my permission first.
 </t>
   </si>
   <si>
@@ -2712,7 +2712,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Haven't you already done this before? I've had enough of your... hypocrisy.
+    <t xml:space="preserve">[name="Ch'en"] Haven't you already done this before? I've had enough of your... hypocrisy.
 </t>
   </si>
   <si>
